--- a/csv/svm/svm_pc15_sigmoid.xlsx
+++ b/csv/svm/svm_pc15_sigmoid.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Best Par.1" r:id="rId3" sheetId="1"/>
-    <sheet name="Best Perf.1" r:id="rId4" sheetId="2"/>
-    <sheet name="Perf.2" r:id="rId5" sheetId="3"/>
-    <sheet name="Best Par.2" r:id="rId6" sheetId="4"/>
-    <sheet name="Best Perf.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sel. Par.1" r:id="rId4" sheetId="2"/>
+    <sheet name="Best Perf.1" r:id="rId5" sheetId="3"/>
+    <sheet name="Perf.2" r:id="rId6" sheetId="4"/>
+    <sheet name="Sel. Par.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Best Par.2" r:id="rId8" sheetId="6"/>
+    <sheet name="Best Perf.2" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>cost</t>
   </si>
@@ -24,46 +26,49 @@
     <t>gamma</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -128,10 +133,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
   </sheetData>
@@ -150,6 +155,39 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00909090909090909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -158,15 +196,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2326839826839827</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.22272727272727272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -194,10 +232,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.40865800865800866</v>
+        <v>0.5229437229437229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09253679221643282</v>
+        <v>0.11309946690796574</v>
       </c>
     </row>
     <row r="3">
@@ -208,10 +246,10 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3073593073593074</v>
+        <v>0.3746753246753247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11680737930633525</v>
+        <v>0.1077403767047941</v>
       </c>
     </row>
     <row r="4">
@@ -222,10 +260,10 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2792207792207792</v>
+        <v>0.3145021645021645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10787340640691748</v>
+        <v>0.0729183482526223</v>
       </c>
     </row>
     <row r="5">
@@ -236,10 +274,10 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27943722943722943</v>
+        <v>0.27705627705627706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11314203390319566</v>
+        <v>0.06945170592270636</v>
       </c>
     </row>
     <row r="6">
@@ -250,10 +288,10 @@
         <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26536796536796536</v>
+        <v>0.26341991341991344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10401728542930028</v>
+        <v>0.06300688624631802</v>
       </c>
     </row>
     <row r="7">
@@ -264,10 +302,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27012987012987016</v>
+        <v>0.24523809523809523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1146428094083286</v>
+        <v>0.05680231804009803</v>
       </c>
     </row>
     <row r="8">
@@ -278,10 +316,10 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.26515151515151514</v>
+        <v>0.24523809523809523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09586054191690556</v>
+        <v>0.04804403905982584</v>
       </c>
     </row>
     <row r="9">
@@ -292,10 +330,10 @@
         <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2465367965367965</v>
+        <v>0.24047619047619048</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09039485563059814</v>
+        <v>0.04589844858879285</v>
       </c>
     </row>
     <row r="10">
@@ -306,10 +344,10 @@
         <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2463203463203463</v>
+        <v>0.24978354978354977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08708845461018509</v>
+        <v>0.05284420232075272</v>
       </c>
     </row>
     <row r="11">
@@ -320,32 +358,59 @@
         <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2372294372294372</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0887545601455836</v>
+        <v>0.058305115696391824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24675324675324675</v>
+        <v>0.24047619047619048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09647087912293395</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.05065376990542015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -367,18 +432,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.00909090909090909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -397,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2326839826839827</v>
+        <v>0.22272727272727272</v>
       </c>
     </row>
   </sheetData>

--- a/csv/svm/svm_pc15_sigmoid.xlsx
+++ b/csv/svm/svm_pc15_sigmoid.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>cost</t>
   </si>
@@ -26,7 +26,7 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>15</t>
+    <t>8</t>
   </si>
   <si>
     <t>x</t>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>9</t>
@@ -133,10 +130,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -166,10 +163,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -196,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22272727272727272</v>
+        <v>0.23073593073593074</v>
       </c>
     </row>
   </sheetData>
@@ -232,10 +229,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5229437229437229</v>
+        <v>0.42987012987012985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11309946690796574</v>
+        <v>0.09724587894565243</v>
       </c>
     </row>
     <row r="3">
@@ -246,10 +243,10 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3746753246753247</v>
+        <v>0.3190476190476191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1077403767047941</v>
+        <v>0.09509697008190321</v>
       </c>
     </row>
     <row r="4">
@@ -260,10 +257,10 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3145021645021645</v>
+        <v>0.29610389610389615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0729183482526223</v>
+        <v>0.09270540281544992</v>
       </c>
     </row>
     <row r="5">
@@ -274,10 +271,10 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27705627705627706</v>
+        <v>0.24956709956709958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06945170592270636</v>
+        <v>0.06429093705857805</v>
       </c>
     </row>
     <row r="6">
@@ -288,10 +285,10 @@
         <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26341991341991344</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06300688624631802</v>
+        <v>0.06247713007316887</v>
       </c>
     </row>
     <row r="7">
@@ -302,10 +299,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.24523809523809523</v>
+        <v>0.24523809523809526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05680231804009803</v>
+        <v>0.0688347233026946</v>
       </c>
     </row>
     <row r="8">
@@ -316,66 +313,66 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24523809523809523</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04804403905982584</v>
+        <v>0.06894051714565286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24047619047619048</v>
+        <v>0.24545454545454548</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04589844858879285</v>
+        <v>0.0586877752126154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24978354978354977</v>
+        <v>0.2409090909090909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05284420232075272</v>
+        <v>0.06192351135686416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.2318181818181818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.058305115696391824</v>
+        <v>0.07025987214206508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24047619047619048</v>
+        <v>0.23181818181818184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05065376990542015</v>
+        <v>0.05965768320258315</v>
       </c>
     </row>
   </sheetData>
@@ -399,10 +396,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.2</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -432,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22272727272727272</v>
+        <v>0.23073593073593074</v>
       </c>
     </row>
   </sheetData>
